--- a/Employee_Reports35/Jerome Latagan Cardejon Q0487.xlsx
+++ b/Employee_Reports35/Jerome Latagan Cardejon Q0487.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>-390</v>
+        <v>-391</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">

--- a/Employee_Reports35/Jerome Latagan Cardejon Q0487.xlsx
+++ b/Employee_Reports35/Jerome Latagan Cardejon Q0487.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>-391</v>
+        <v>-392</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
